--- a/FogliCalcolo/NastroTrasportatore/Nastro.xlsx
+++ b/FogliCalcolo/NastroTrasportatore/Nastro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\NastroTrasportatore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\NastroTrasportatore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1371FB81-5F77-4959-A288-9E645BE347E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB152389-F559-4B85-982A-2BEB4C81A60F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-60" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{38F28402-0782-459F-A055-4B2B36D37780}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{38F28402-0782-459F-A055-4B2B36D37780}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle" sheetId="2" r:id="rId1"/>
@@ -751,34 +751,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -793,6 +772,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -877,7 +877,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1002,7 +1002,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3185.6637272727276</c:v>
+                  <c:v>6371.3274545454551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,7 +1088,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0529277386363645</c:v>
+                  <c:v>6.1058554772727289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,7 +1191,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816908111"/>
@@ -1278,7 +1278,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1310,7 +1310,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816910191"/>
@@ -1352,7 +1352,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1382,7 +1382,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2280,13 +2280,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -2299,7 +2299,7 @@
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="3">
@@ -2334,14 +2334,14 @@
     </row>
     <row r="7" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
@@ -2511,26 +2511,26 @@
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
@@ -2700,7 +2700,7 @@
   <dimension ref="B1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2807,7 @@
         <v>77</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" t="s">
@@ -2832,11 +2832,11 @@
       </c>
       <c r="C14" s="3">
         <f>IF($C$12=1,1/110*(B14/1000+4)*(B14/1000)^2,1/55*(B14/1000+4)*(B14/1000)^2)</f>
-        <v>1.5054545454545451E-2</v>
+        <v>3.0109090909090901E-2</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D19" si="0">$C$11/C14</f>
-        <v>9.8407586330291661</v>
+        <v>4.920379316514583</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -2846,11 +2846,11 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ref="C15:C19" si="1">IF($C$12=1,1/110*(B15/1000+4)*(B15/1000)^2,1/55*(B15/1000+4)*(B15/1000)^2)</f>
-        <v>2.0936363636363631E-2</v>
+        <v>4.1872727272727263E-2</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>7.0761164986089007</v>
+        <v>3.5380582493044503</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -2859,11 +2859,11 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" si="1"/>
-        <v>2.7927272727272731E-2</v>
+        <v>5.5854545454545462E-2</v>
       </c>
       <c r="D16" s="31">
         <f t="shared" si="0"/>
-        <v>5.3047839506172831</v>
+        <v>2.6523919753086416</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -2872,11 +2872,11 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" si="1"/>
-        <v>3.6081818181818187E-2</v>
+        <v>7.2163636363636374E-2</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>4.1058947584520764</v>
+        <v>2.0529473792260382</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2885,11 +2885,11 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" si="1"/>
-        <v>4.5454545454545456E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>3.2592592592592591</v>
+        <v>1.6296296296296295</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2898,11 +2898,11 @@
       </c>
       <c r="C19" s="34">
         <f t="shared" si="1"/>
-        <v>3.6081818181818187E-2</v>
+        <v>7.2163636363636374E-2</v>
       </c>
       <c r="D19" s="35">
         <f t="shared" si="0"/>
-        <v>4.1058947584520764</v>
+        <v>2.0529473792260382</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C28" s="3">
         <f>C23*C19*C6*(C4+C24)*9.81*C10</f>
-        <v>3185.6637272727276</v>
+        <v>6371.3274545454551</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>8</v>
@@ -2998,7 +2998,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="3">
-        <f>C16*C6*C5*9.81</f>
+        <f>C19*C6*C5*9.81</f>
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C30" s="3">
         <f>0.0115*C6*C19*9.81</f>
-        <v>3.0529277386363645</v>
+        <v>6.1058554772727289</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>8</v>
@@ -3033,7 +3033,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6">
         <f>SUM(C25,C28,C29,C30,C31)</f>
-        <v>10399.066655011362</v>
+        <v>13587.783310022727</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>8</v>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="C37" s="17">
         <f>C32/(EXP(C35*RADIANS(C36))-1)</f>
-        <v>6639.1186741876254</v>
+        <v>8674.9040954472348</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>8</v>
@@ -3089,9 +3089,9 @@
       <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="17">
         <f>C37+C32</f>
-        <v>17038.185329198986</v>
+        <v>22262.687405469962</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>8</v>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C40" s="17">
         <f>2*(C26+C37)/9.81</f>
-        <v>2233.5410141055299</v>
+        <v>2648.5839134448997</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>52</v>
@@ -3150,8 +3150,8 @@
         <v>29</v>
       </c>
       <c r="C44" s="3">
-        <f>_xlfn.CEILING.MATH(C38/(5*B19))</f>
-        <v>4</v>
+        <f>_xlfn.CEILING.MATH(C38/(C43*B19))</f>
+        <v>5</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="C45" s="3">
         <f>50*C44*B16/1000*9.81</f>
-        <v>1569.6000000000001</v>
+        <v>1962</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
@@ -3190,12 +3190,12 @@
     </row>
     <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="45"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
     </row>
     <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B50" s="20" t="s">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C52" s="17">
         <f>0.001*C32*D19/(C50*C51)</f>
-        <v>59.302046210562381</v>
+        <v>38.743061299725632</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>64</v>
@@ -3249,12 +3249,12 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="49" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="17">
         <f>2*D19/C54</f>
-        <v>18.248421148675895</v>
+        <v>9.1242105743379476</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>18</v>
@@ -3262,10 +3262,10 @@
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="46"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="17">
         <f>60*C55/(2*PI())</f>
-        <v>174.25958576606709</v>
+        <v>87.129792883033545</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>19</v>
@@ -3273,12 +3273,12 @@
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="52"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
@@ -3362,11 +3362,11 @@
       <c r="B64" s="2"/>
       <c r="C64" s="17">
         <f>C61/C56</f>
-        <v>17.043538735292557</v>
+        <v>34.087077470585115</v>
       </c>
       <c r="D64" s="17">
         <f>D61/C56</f>
-        <v>8.4930765414925879</v>
+        <v>16.986153082985176</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>73</v>
@@ -3384,11 +3384,11 @@
       </c>
       <c r="C66" s="25">
         <f>3^0.5/3*$C$52*1000/($C$58*C63)</f>
-        <v>93.038185715119056</v>
+        <v>60.783469757137944</v>
       </c>
       <c r="D66" s="25">
         <f>3^0.5/3*$C$52*1000/($C$58*D63)</f>
-        <v>92.037775116031753</v>
+        <v>60.129884060824637</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>21</v>

--- a/FogliCalcolo/NastroTrasportatore/Nastro.xlsx
+++ b/FogliCalcolo/NastroTrasportatore/Nastro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\NastroTrasportatore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB152389-F559-4B85-982A-2BEB4C81A60F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F7A62E-0867-4918-8204-0361F726A5EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{38F28402-0782-459F-A055-4B2B36D37780}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38F28402-0782-459F-A055-4B2B36D37780}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle" sheetId="2" r:id="rId1"/>
@@ -550,7 +550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +560,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -738,13 +744,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -794,6 +798,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2269,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0AA19D-7EF9-4769-A59A-7611C17DFC04}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,13 +2289,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -2299,10 +2308,10 @@
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="55">
         <v>1800</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2317,7 +2326,7 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="55">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2334,14 +2343,14 @@
     </row>
     <row r="7" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
@@ -2361,7 +2370,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="31">
         <v>0.3</v>
       </c>
       <c r="C9" s="3">
@@ -2382,7 +2391,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="31">
         <v>0.4</v>
       </c>
       <c r="C10" s="3">
@@ -2403,7 +2412,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="31">
         <v>0.5</v>
       </c>
       <c r="C11" s="3">
@@ -2424,7 +2433,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="31">
         <v>0.65</v>
       </c>
       <c r="C12" s="3">
@@ -2445,7 +2454,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="31">
         <v>0.8</v>
       </c>
       <c r="C13" s="3">
@@ -2466,7 +2475,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="B14" s="31">
         <v>1</v>
       </c>
       <c r="C14" s="3">
@@ -2487,7 +2496,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+      <c r="B15" s="54">
         <v>1.2</v>
       </c>
       <c r="C15" s="6">
@@ -2508,29 +2517,29 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J17" s="37"/>
+      <c r="J17" s="35"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
@@ -2603,7 +2612,7 @@
         <f t="shared" si="3"/>
         <v>1.575</v>
       </c>
-      <c r="J23" s="37"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
@@ -2699,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB335A8A-22CA-4B30-8DE0-588C3CA3CAF1}">
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,47 +2727,47 @@
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="51">
         <v>400</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="51">
         <v>400</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="51">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="51">
         <v>750</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2786,11 +2795,11 @@
       <c r="B10" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="51">
         <v>1</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="G10" s="37"/>
+      <c r="D10" s="27"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
@@ -2806,14 +2815,14 @@
       <c r="B12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="51">
         <v>2</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="37"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -2827,7 +2836,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="B14" s="52">
         <v>600</v>
       </c>
       <c r="C14" s="3">
@@ -2841,7 +2850,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="52">
         <v>700</v>
       </c>
       <c r="C15" s="3">
@@ -2854,20 +2863,20 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="32">
+      <c r="B16" s="52">
         <v>800</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>5.5854545454545462E-2</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="30">
         <f t="shared" si="0"/>
         <v>2.6523919753086416</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="52">
         <v>900</v>
       </c>
       <c r="C17" s="3">
@@ -2880,7 +2889,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
+      <c r="B18" s="52">
         <v>1000</v>
       </c>
       <c r="C18" s="3">
@@ -2893,14 +2902,14 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="33">
+      <c r="B19" s="53">
         <v>900</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="32">
         <f t="shared" si="1"/>
         <v>7.2163636363636374E-2</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <f t="shared" si="0"/>
         <v>2.0529473792260382</v>
       </c>
@@ -2917,7 +2926,7 @@
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="51">
         <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -2928,7 +2937,7 @@
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="51">
         <v>0.03</v>
       </c>
       <c r="D23" s="4"/>
@@ -3052,7 +3061,7 @@
       <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="51">
         <v>0.3</v>
       </c>
       <c r="D35" s="3"/>
@@ -3064,7 +3073,7 @@
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="51">
         <v>180</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3135,7 +3144,7 @@
       <c r="B43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="51">
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -3181,7 +3190,7 @@
       <c r="B47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="36" t="str">
+      <c r="C47" s="34" t="str">
         <f>IF(C45&lt;C37,"OK","NO")</f>
         <v>OK</v>
       </c>
@@ -3190,18 +3199,18 @@
     </row>
     <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B50" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="51">
         <v>0.9</v>
       </c>
       <c r="D50" s="3"/>
@@ -3211,7 +3220,7 @@
       <c r="B51" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="51">
         <v>0.8</v>
       </c>
       <c r="D51" s="3"/>
@@ -3240,7 +3249,7 @@
       <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="51">
         <v>0.45</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -3249,7 +3258,7 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="17">
@@ -3262,7 +3271,7 @@
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="49"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="17">
         <f>60*C55/(2*PI())</f>
         <v>87.129792883033545</v>
@@ -3273,18 +3282,18 @@
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="51">
         <v>400</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -3296,10 +3305,10 @@
       <c r="B59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="51">
         <v>1</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="51">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -3310,10 +3319,10 @@
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="51">
         <v>3000</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="51">
         <v>1500</v>
       </c>
       <c r="E60" s="4"/>
@@ -3322,10 +3331,10 @@
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="51">
         <v>2970</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="51">
         <v>1480</v>
       </c>
       <c r="E61" s="4"/>
@@ -3350,10 +3359,10 @@
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="51">
         <v>0.92</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="51">
         <v>0.93</v>
       </c>
       <c r="E63" s="4"/>
